--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-635855.0630584321</v>
+        <v>-598254.8442240758</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484451</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9428642.803897675</v>
+        <v>9453593.566113221</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.5025391737222</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>195.7145107544488</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -826,7 +826,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>35.69039171471911</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>257.636364523419</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>361.0423675600757</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>243.9317179724228</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.92860943835224</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,7 +1114,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>236.3534627278524</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.1316418580994</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>242.3228933237399</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1300,7 +1300,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>172.493324008032</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>261.4557957275877</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1376,19 +1376,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>204.8073720166486</v>
       </c>
       <c r="F11" t="n">
-        <v>321.7045234469597</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0564930767</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>240.2737862279047</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>86.20228614855871</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1813,10 +1813,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>13.99728392830507</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112152</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>94.5026404896785</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>72.13424985736094</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430784</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>111.5098183264947</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.97358346682203</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>115.1105674615482</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2527,10 +2527,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>240.9739924675004</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225842</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7884964950062</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225773</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3661,7 +3661,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
@@ -3676,10 +3676,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277822</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934483</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.96793274293448</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,7 +4135,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742933763</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1673.189122551494</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1235.046649734917</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1203.177268949766</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>769.402524108061</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.5350945172687</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.5350945172687</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048495</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048495</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134029</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1136.170759424404</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301595</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301595</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301595</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301595</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312596</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271191</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024248</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2536.595124208085</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2316.527897081123</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2316.527897081123</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>2316.527897081123</v>
       </c>
       <c r="W2" t="n">
-        <v>846.059151609114</v>
+        <v>2118.836472076629</v>
       </c>
       <c r="X2" t="n">
-        <v>426.9166881884247</v>
+        <v>1699.69400865594</v>
       </c>
       <c r="Y2" t="n">
-        <v>422.6709685284822</v>
+        <v>1695.448288995998</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1463.178981536732</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1356.722520373374</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1261.632231519927</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1167.511816846881</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1084.127978463043</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>998.7428887292265</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>957.0072365454389</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>983.0709097058965</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1307.629234672109</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>1307.629234672109</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1307.629234672109</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1307.629234672109</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1307.629234672109</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1313.824149286831</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1962.335281297833</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2503.074219929908</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024248</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2556.791560472631</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2426.612916803233</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2250.276369803201</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2051.1588518652</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1865.836097598394</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1710.968661837274</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1584.482882616495</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>973.0996549038641</v>
+        <v>850.9047729464355</v>
       </c>
       <c r="C4" t="n">
-        <v>800.5379433870891</v>
+        <v>678.3430614296605</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>512.4650686311832</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>342.7070648819204</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>306.6561641599819</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>141.0648891858096</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>141.0648891858096</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048495</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>138.9846251251748</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>364.9255278572737</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>783.1354096252347</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>1242.619276806148</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1684.878079963792</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2104.547329189574</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2452.054223159916</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024248</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2598.82917672962</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2598.82917672962</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.949730308075</v>
       </c>
       <c r="U4" t="n">
-        <v>1436.94467803656</v>
+        <v>2074.51672956118</v>
       </c>
       <c r="V4" t="n">
-        <v>1436.94467803656</v>
+        <v>1787.56122143161</v>
       </c>
       <c r="W4" t="n">
-        <v>1164.918273622851</v>
+        <v>1515.534817017902</v>
       </c>
       <c r="X4" t="n">
-        <v>1164.918273622851</v>
+        <v>1270.143062351314</v>
       </c>
       <c r="Y4" t="n">
-        <v>1164.918273622851</v>
+        <v>1042.723391665423</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.0636759001414</v>
+        <v>1195.45039114996</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1161.348322373787</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1129.478941588636</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X5" t="n">
-        <v>914.6089660449918</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y5" t="n">
-        <v>910.3632463850493</v>
+        <v>1621.749961634868</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>428.0970671107308</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C7" t="n">
-        <v>428.0970671107308</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D7" t="n">
-        <v>428.0970671107308</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1259.509060631519</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>972.5535525019498</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>972.5535525019498</v>
+        <v>1439.392809694512</v>
       </c>
       <c r="X7" t="n">
-        <v>727.1617978353622</v>
+        <v>1194.001055027924</v>
       </c>
       <c r="Y7" t="n">
-        <v>499.7421271494705</v>
+        <v>966.5813843420327</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>968.5888274233018</v>
+        <v>1267.919211788425</v>
       </c>
       <c r="C8" t="n">
-        <v>934.4867586471291</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D8" t="n">
-        <v>498.5769738215736</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>64.80222897986877</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>40.97520342948057</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>40.97520342948057</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>40.97520342948057</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948057</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823984</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>476.2298908823984</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>476.2298908823984</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>476.2298908823984</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>865.4698218413273</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>865.4698218413273</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.537964281149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.606106720971</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474028</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.760171474028</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.760171474028</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.760171474028</v>
+        <v>2481.038965968701</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.760171474028</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="W8" t="n">
-        <v>2047.945120925466</v>
+        <v>2117.606965353965</v>
       </c>
       <c r="X8" t="n">
-        <v>1803.174521608556</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y8" t="n">
-        <v>1394.88839790821</v>
+        <v>1290.178378232929</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207734</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574156</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039689</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309226</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470842</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326809</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948057</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.03887658993816</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561505</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959724</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213157</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005365</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.033364041362</v>
+        <v>1041.328054693136</v>
       </c>
       <c r="C10" t="n">
-        <v>947.4716525245868</v>
+        <v>868.7663431763605</v>
       </c>
       <c r="D10" t="n">
-        <v>781.5936597261095</v>
+        <v>702.8883503778832</v>
       </c>
       <c r="E10" t="n">
-        <v>611.8356559768469</v>
+        <v>533.1303466286204</v>
       </c>
       <c r="F10" t="n">
-        <v>435.128601938603</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>269.5373269644307</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>129.6351526548052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948057</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.97520342948057</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97520342948057</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>459.1850851974416</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>918.6689523783547</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1360.927755535999</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1780.597004761781</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474028</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474028</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2048.760171474028</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2048.760171474028</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2048.760171474028</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2048.760171474028</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V10" t="n">
-        <v>2048.760171474028</v>
+        <v>1977.98450317831</v>
       </c>
       <c r="W10" t="n">
-        <v>1784.663408112828</v>
+        <v>1705.958098764602</v>
       </c>
       <c r="X10" t="n">
-        <v>1539.271653446241</v>
+        <v>1460.566344098014</v>
       </c>
       <c r="Y10" t="n">
-        <v>1311.851982760349</v>
+        <v>1233.146673412123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2107.122892207574</v>
+        <v>1844.817160557825</v>
       </c>
       <c r="C11" t="n">
-        <v>1668.980419390998</v>
+        <v>1406.674687741248</v>
       </c>
       <c r="D11" t="n">
-        <v>1233.070634565442</v>
+        <v>970.7649029156928</v>
       </c>
       <c r="E11" t="n">
-        <v>799.2958897237372</v>
+        <v>763.8887695655429</v>
       </c>
       <c r="F11" t="n">
-        <v>474.3418256358991</v>
+        <v>763.8887695655429</v>
       </c>
       <c r="G11" t="n">
-        <v>72.94399425916296</v>
+        <v>362.4909381888069</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916296</v>
+        <v>73.36078363202309</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916296</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="J11" t="n">
-        <v>72.94399425916296</v>
+        <v>508.1986817120809</v>
       </c>
       <c r="K11" t="n">
-        <v>907.2942862173409</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>1809.976215174483</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="M11" t="n">
-        <v>1809.976215174483</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="N11" t="n">
-        <v>1809.976215174483</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="O11" t="n">
-        <v>2712.658144131624</v>
+        <v>2245.230902627402</v>
       </c>
       <c r="P11" t="n">
-        <v>3540.96801896502</v>
+        <v>3073.540777460798</v>
       </c>
       <c r="Q11" t="n">
-        <v>3647.199712958148</v>
+        <v>3620.039563419393</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.199712958148</v>
+        <v>3647.199712958154</v>
       </c>
       <c r="S11" t="n">
-        <v>3563.547839141986</v>
+        <v>3563.547839141991</v>
       </c>
       <c r="T11" t="n">
-        <v>3563.547839141986</v>
+        <v>3343.48061201503</v>
       </c>
       <c r="U11" t="n">
-        <v>3304.325536459002</v>
+        <v>3084.258309332046</v>
       </c>
       <c r="V11" t="n">
-        <v>2941.708586392829</v>
+        <v>3084.258309332046</v>
       </c>
       <c r="W11" t="n">
-        <v>2941.708586392829</v>
+        <v>2679.402854743079</v>
       </c>
       <c r="X11" t="n">
-        <v>2941.708586392829</v>
+        <v>2679.402854743079</v>
       </c>
       <c r="Y11" t="n">
-        <v>2533.422462692482</v>
+        <v>2271.116731042733</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.1157392504557</v>
+        <v>579.1157392504559</v>
       </c>
       <c r="C12" t="n">
-        <v>472.659278087098</v>
+        <v>472.6592780870982</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336513</v>
+        <v>377.5689892336515</v>
       </c>
       <c r="E12" t="n">
-        <v>283.448574560605</v>
+        <v>283.4485745606052</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767666</v>
+        <v>200.0647361767668</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429505</v>
+        <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916296</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962056</v>
+        <v>99.00766741962069</v>
       </c>
       <c r="J12" t="n">
-        <v>423.5659923858329</v>
+        <v>423.5659923858331</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.272039011556</v>
+        <v>423.5659923858331</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.272039011556</v>
+        <v>423.5659923858331</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.272039011556</v>
+        <v>423.5659923858331</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.272039011556</v>
+        <v>423.5659923858331</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.272039011556</v>
+        <v>423.5659923858331</v>
       </c>
       <c r="P12" t="n">
-        <v>1078.272039011556</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="Q12" t="n">
         <v>1619.010977643632</v>
@@ -5148,7 +5148,7 @@
         <v>1672.728318186355</v>
       </c>
       <c r="T12" t="n">
-        <v>1542.549674516956</v>
+        <v>1542.549674516957</v>
       </c>
       <c r="U12" t="n">
         <v>1366.213127516925</v>
@@ -5157,13 +5157,13 @@
         <v>1167.095609578924</v>
       </c>
       <c r="W12" t="n">
-        <v>981.7728553121181</v>
+        <v>981.7728553121183</v>
       </c>
       <c r="X12" t="n">
-        <v>826.9054195509981</v>
+        <v>826.9054195509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.4196403302188</v>
+        <v>700.4196403302191</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1060.87083242367</v>
+        <v>923.4400313360942</v>
       </c>
       <c r="C13" t="n">
-        <v>888.3091209068949</v>
+        <v>750.8783198193191</v>
       </c>
       <c r="D13" t="n">
-        <v>722.4311281084176</v>
+        <v>585.000327020842</v>
       </c>
       <c r="E13" t="n">
-        <v>552.6731243591548</v>
+        <v>415.2423232715792</v>
       </c>
       <c r="F13" t="n">
-        <v>375.9660703209111</v>
+        <v>238.5352692333354</v>
       </c>
       <c r="G13" t="n">
-        <v>210.3747953467387</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="H13" t="n">
-        <v>72.94399425916296</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916296</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="J13" t="n">
-        <v>159.5236794238528</v>
+        <v>159.5236794238529</v>
       </c>
       <c r="K13" t="n">
-        <v>434.2821339949884</v>
+        <v>434.2821339949885</v>
       </c>
       <c r="L13" t="n">
-        <v>852.4920157629494</v>
+        <v>852.4920157629496</v>
       </c>
       <c r="M13" t="n">
-        <v>1311.975882943862</v>
+        <v>1311.975882943863</v>
       </c>
       <c r="N13" t="n">
         <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.903935327288</v>
+        <v>2173.903935327289</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.41082929763</v>
+        <v>2521.410829297631</v>
       </c>
       <c r="Q13" t="n">
         <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.603604161963</v>
+        <v>2668.185782867334</v>
       </c>
       <c r="S13" t="n">
-        <v>2530.362235459959</v>
+        <v>2668.185782867334</v>
       </c>
       <c r="T13" t="n">
-        <v>2284.482789038414</v>
+        <v>2425.484988697734</v>
       </c>
       <c r="U13" t="n">
-        <v>2284.482789038414</v>
+        <v>2147.051987950839</v>
       </c>
       <c r="V13" t="n">
-        <v>1997.527280908845</v>
+        <v>1860.096479821269</v>
       </c>
       <c r="W13" t="n">
-        <v>1725.500876495137</v>
+        <v>1588.070075407561</v>
       </c>
       <c r="X13" t="n">
-        <v>1480.109121828549</v>
+        <v>1342.678320740973</v>
       </c>
       <c r="Y13" t="n">
-        <v>1252.689451142657</v>
+        <v>1115.258650055081</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5264,7 +5264,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5279,46 +5279,46 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>934.6074576929143</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>2009.667423945774</v>
       </c>
       <c r="M14" t="n">
-        <v>3569.079287993934</v>
+        <v>2009.667423945774</v>
       </c>
       <c r="N14" t="n">
-        <v>3569.079287993934</v>
+        <v>3135.398407382221</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>4115.578073952527</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136696</v>
@@ -5334,16 +5334,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937635</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>790.3368563937635</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674088</v>
+        <v>624.4588635952862</v>
       </c>
       <c r="E16" t="n">
-        <v>673.121292818146</v>
+        <v>454.7008598460235</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799022</v>
+        <v>277.9938058077797</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>277.9938058077797</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5437,7 +5437,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5461,25 +5461,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004222</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,52 +5513,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.023562068816</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321675</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532226</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968673</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674088</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E19" t="n">
-        <v>673.121292818146</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799022</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1654.13042623514</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1408.738671568553</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1181.319000882661</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5750,52 +5750,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238767</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798643</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y22" t="n">
-        <v>1181.319000882661</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>1039.174348374284</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>866.6126368575088</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>700.7346440590316</v>
       </c>
       <c r="E25" t="n">
         <v>584.4613435928212</v>
@@ -6175,22 +6175,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1230.992967093271</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903958</v>
+        <v>970.9960463903948</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736207</v>
+        <v>798.4343348736197</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751434</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258807</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0912842876372</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134649</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.652494875571</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795275</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109383</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.578225095767</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>777.016513578992</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805147</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>441.3805170312519</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>264.6734629930081</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6844,7 +6844,7 @@
         <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449518</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7178,22 +7178,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
@@ -7309,19 +7309,19 @@
         <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936678</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080667</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716801</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463124</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850161</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
@@ -7348,7 +7348,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
         <v>2842.813139461497</v>
@@ -7357,22 +7357,22 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703678</v>
@@ -7388,19 +7388,19 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
         <v>97.56670367581785</v>
@@ -7415,22 +7415,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>1367.171683086914</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>1367.171683086914</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2492.90266652336</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3473.082333093667</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4301.392207927063</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7439,22 +7439,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7546,22 +7546,22 @@
         <v>1061.826912397567</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080665</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716799</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463122</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850159</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882666</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581785</v>
@@ -7585,10 +7585,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
@@ -7597,22 +7597,22 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7631,67 +7631,67 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>444.7825334645028</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1279.132825422681</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.19279167554</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.19279167554</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.19279167554</v>
+        <v>2733.612340818042</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>3713.792007388348</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7786,22 +7786,22 @@
         <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7828,25 +7828,25 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060619</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850412</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060619</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>6.257489509820743</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060619</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,19 +8137,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>228.2231340728272</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>393.1716474332615</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>512.190042868507</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685071</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.190042868507</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.140101392076</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685071</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679267</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>911.7999282395372</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395372</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>107.3047414071998</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.43449448359706</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,25 +8927,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>401.1029595648655</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>411.907991020983</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -11306,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>453.4245714049416</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>224.6296253766391</v>
       </c>
       <c r="F11" t="n">
-        <v>101.8842318479246</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.446659489829251</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>52.30086641797051</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.4233680290242</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>69.71657238081403</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>197.1718905122104</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>63.43016517136665</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.1718905122108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>52.94985625022193</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.67467827192533</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142708</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.146865729424406</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627256</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.203126983768016e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>815345.8832197572</v>
+        <v>824812.226444626</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>815345.8832197572</v>
+        <v>825323.0848658911</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>818951.4269975562</v>
+        <v>825323.0848658911</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652344.3551676113</v>
+        <v>652344.355167612</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>830870.4293214349</v>
+        <v>830870.4293214347</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830870.4293214352</v>
+        <v>830870.4293214348</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830870.4293214348</v>
+        <v>830870.4293214347</v>
       </c>
     </row>
     <row r="11">
@@ -26320,7 +26320,7 @@
         <v>147440.5129698623</v>
       </c>
       <c r="E2" t="n">
-        <v>113754.7488592569</v>
+        <v>113754.7488592571</v>
       </c>
       <c r="F2" t="n">
         <v>144885.8356377719</v>
@@ -26329,13 +26329,13 @@
         <v>144885.8356377719</v>
       </c>
       <c r="H2" t="n">
-        <v>144885.8356377719</v>
+        <v>144885.8356377718</v>
       </c>
       <c r="I2" t="n">
         <v>144885.8356377719</v>
       </c>
       <c r="J2" t="n">
-        <v>144885.8356377719</v>
+        <v>144885.8356377718</v>
       </c>
       <c r="K2" t="n">
         <v>144885.8356377719</v>
@@ -26350,10 +26350,10 @@
         <v>147440.5129698623</v>
       </c>
       <c r="O2" t="n">
+        <v>147440.5129698622</v>
+      </c>
+      <c r="P2" t="n">
         <v>147440.5129698623</v>
-      </c>
-      <c r="P2" t="n">
-        <v>147440.5129698622</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.25867972</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928948495</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477434</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543114</v>
+        <v>72938.04361534423</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540559</v>
+        <v>105000.4827540554</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877641</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347374785</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401259</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400217</v>
+        <v>60876.72976950158</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716076</v>
+        <v>88373.14763716029</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>150349.4599672937</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511645</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>177186.5770166559</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>42838.32636452526</v>
+        <v>42838.3263645253</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="G4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="J4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="H4" t="n">
-        <v>54561.82510962277</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.82510962276</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="M4" t="n">
         <v>54561.82510962275</v>
       </c>
-      <c r="M4" t="n">
-        <v>54561.82510962276</v>
-      </c>
       <c r="N4" t="n">
-        <v>68372.72551926988</v>
+        <v>68372.72551926991</v>
       </c>
       <c r="O4" t="n">
         <v>68372.72551926989</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996855</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640522</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696385</v>
+        <v>55437.43563696394</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26509,7 @@
         <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-247872.2554782344</v>
+        <v>-295890.56004712</v>
       </c>
       <c r="C6" t="n">
-        <v>-105680.9548185245</v>
+        <v>-78805.55276663303</v>
       </c>
       <c r="D6" t="n">
-        <v>-121817.3894479732</v>
+        <v>-74782.20583768452</v>
       </c>
       <c r="E6" t="n">
-        <v>-103835.7334965436</v>
+        <v>-57765.29097676372</v>
       </c>
       <c r="F6" t="n">
-        <v>-92394.71083169937</v>
+        <v>-92417.93517108136</v>
       </c>
       <c r="G6" t="n">
-        <v>12605.77192235659</v>
+        <v>12582.547582974</v>
       </c>
       <c r="H6" t="n">
-        <v>12605.77192235662</v>
+        <v>12582.54758297394</v>
       </c>
       <c r="I6" t="n">
-        <v>12605.77192235662</v>
+        <v>12582.547582974</v>
       </c>
       <c r="J6" t="n">
-        <v>-98408.6934226336</v>
+        <v>-158810.4288047901</v>
       </c>
       <c r="K6" t="n">
-        <v>12605.77192235662</v>
+        <v>9377.426235599205</v>
       </c>
       <c r="L6" t="n">
-        <v>-9639.455341655965</v>
+        <v>12582.54758297395</v>
       </c>
       <c r="M6" t="n">
-        <v>-86978.60995164557</v>
+        <v>-48294.18218652761</v>
       </c>
       <c r="N6" t="n">
-        <v>-84820.97491265804</v>
+        <v>-84820.97491265762</v>
       </c>
       <c r="O6" t="n">
-        <v>3552.172724502656</v>
+        <v>3552.172724502598</v>
       </c>
       <c r="P6" t="n">
-        <v>3552.172724502612</v>
+        <v>3552.172724502729</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060619</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.190042868507</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395371</v>
+        <v>911.7999282395385</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060619</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179504</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840271</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.60988537103</v>
+        <v>244.2847216316816</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452083</v>
+        <v>366.4605751452063</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060619</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179504</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840271</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.60988537103</v>
+        <v>244.2847216316816</v>
       </c>
       <c r="N4" t="n">
-        <v>307.783867708186</v>
+        <v>307.7838677081841</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060619</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179504</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840271</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.60988537103</v>
+        <v>244.2847216316816</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452083</v>
+        <v>366.4605751452063</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.5340356063365</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>205.0923892886282</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.2495917831422</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>18.01230621600666</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>72.7186805283352</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>185.5052794208649</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.971823093445</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>32.95267764171896</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>69.49843779805391</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>172.6281454627425</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.446659489829329</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>7.850344641983725</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060619</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850412</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060619</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,10 +34772,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>6.257489509820743</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060619</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>228.2231340728272</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>393.1716474332615</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>512.190042868507</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685071</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.190042868507</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.140101392076</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685071</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679267</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>911.7999282395372</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35422,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395372</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>107.3047414071998</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.43449448359706</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,25 +35647,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>401.1029595648655</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
         <v>186.1274021209015</v>
@@ -37783,25 +37783,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>411.907991020983</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,13 +38026,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>453.4245714049416</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
